--- a/Office_rental_data/data/segundo_mes/datos_sucios/Dator_ColoniayZona.xlsx
+++ b/Office_rental_data/data/segundo_mes/datos_sucios/Dator_ColoniayZona.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j0rge\OneDrive\Escritorio\Data_used\Office_rental_data\data\data_limpio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j0rge\Desktop\Dato_Inmobiliarios\Data_used\Office_rental_data\data\segundo_mes\datos_sucios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D217EF8-6BB8-4205-8F26-4947138D64B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF85E6D-B681-4D83-942E-C5CD844C16D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CD890F66-3315-4088-A3BC-5BD86E3BBEE7}"/>
+    <workbookView xWindow="38955" yWindow="2190" windowWidth="15570" windowHeight="11385" xr2:uid="{CD890F66-3315-4088-A3BC-5BD86E3BBEE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="33">
-  <si>
-    <t>Ubicación_Renta</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="69">
   <si>
     <t>Blvrd. de las Naciones 1730, la Poza</t>
   </si>
@@ -67,36 +64,9 @@
     <t>COSTA AZUL</t>
   </si>
   <si>
-    <t>Colonia_renta</t>
-  </si>
-  <si>
-    <t>Colonia_venta</t>
-  </si>
-  <si>
     <t>Ubicación_Venta</t>
   </si>
   <si>
-    <t>Zona_renta</t>
-  </si>
-  <si>
-    <t>Fraccionamiento Club Deportivo Acapulco de JuÃ¡rez</t>
-  </si>
-  <si>
-    <t>Barrio La Poza, Acapulco de JuÃ¡rez</t>
-  </si>
-  <si>
-    <t>Fraccionamiento Club Deportivo, Acapulco de JuÃ¡rez</t>
-  </si>
-  <si>
-    <t>Acapulco de JuÃ¡rez Centro, Acapulco de JuÃ¡rez</t>
-  </si>
-  <si>
-    <t>Acapulco de JuÃ¡rez, Guerrero</t>
-  </si>
-  <si>
-    <t>Fraccionamiento Costa Azul, Acapulco de JuÃ¡rez</t>
-  </si>
-  <si>
     <t>Diamante</t>
   </si>
   <si>
@@ -127,13 +97,151 @@
     <t>CAD Torre Latina,Campo de Golf y al mar</t>
   </si>
   <si>
-    <t>Zona Dorada</t>
-  </si>
-  <si>
     <t xml:space="preserve">Av Costera Miguel Aleman </t>
   </si>
   <si>
     <t>CAD Torre Latina. Oficina Piso 9. Vistas al Campo de Golf y al mar</t>
+  </si>
+  <si>
+    <t>Ubicacion</t>
+  </si>
+  <si>
+    <t>Colonia</t>
+  </si>
+  <si>
+    <t>Zona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Cad PabellÃ³n Costera Oficina 26. Ubicada en El Segundo Nivel de La Plaza Comercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Cad Torre Latina. Oficina Piso 6. Vista a La BahÃ­a de Santa LucÃ­a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Cad Torre Latina. Oficina Piso 9. 5 Estacionamientos. Vista Al Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Cad Torre Latina. Oficina Piso 7. Vistas a La BahÃ­a y Al Campo de Golf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Oficinas en Roma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Oficina U Departamento en Excelente Zona Comercial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Oficina Sobre Av CuauhtÃ©moc Cerca de Plazas Comerciales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Oficina a un Costado Centro de Convenciones Acapulco</t>
+  </si>
+  <si>
+    <t>Aquiles SerdÃ¡n / C.Nicolas Bravo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Oficinas en Renta Costera Miguel Aleman Acapulco</t>
+  </si>
+  <si>
+    <t>C. Piloto AntÃ³n de Alaminos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Oficinas en Renta en Exclusiva Plaza Comercial Acapulco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Oficina en Renta en Costa Azul, Acapulco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Se Renta Oficina Corportiva en Calle Acapulco Roma Norte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Excelente Oficina en Renta en Calle Acapulco Roma Norte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Oficina - Comercial en Renta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Oficinas en Renta Sobre Costera Miguel AlemÃ¡n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Pisos Completos Frente a Wal Mart Icacos Sobre Costera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Despacho Excelente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	En Renta Oficinas Equipadas en Acapulco a 20 m de Costera Miguel Aleman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Oficina en Renta en La Colonia Roma Norte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Se Renta Oficina Excelente UbicaciÃ³n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cad PabellÃ³n Costera Oficina 26, 51 mÂ², dos niveles. Ubicado en el segundo nivel de la plaza comercial. Renta mensual incluyendo mantenimiento e iva $13, 500PabellÃ³n Costera, es una de las plazas de bienes de consumo mÃ¡s importantes en esta zona de Acapulco Dorado, rodeada de condominios y fraccionamientos para clientes locales y turismo. PabellÃ³n Costera cuenta con locatarios tales como TacosÂ´ Tumbras, Helados Santa Clara, gnc, Dormimundo, RubenÂ´s Hamburguesas, varios mÃ©dicos de prestigio y muchos mÃ¡s. Casas Acapulco DiamanteSomos una inmobiliaria que te ayudarÃ¡ a encontrar el mejor inmueble de acuerdo a tus sueÃ±os, necesidades y presupuesto. Permite que seamos parte en el proceso de la compra o renta que tienes en mente, dÃ¡ndote la seguridad de que serÃ¡ la mejor oportunidad para operar siempre con transparencia y confiabilidad. Con una atenciÃ³n personalizada, nos ocupamos de que encuentres el inmueble de acuerdo a tus necesidades, acompaÃ±Ã¡ndote y asesorÃ¡ndote desde el principio hasta el cierre de la operaciÃ³n. Nuestro compromiso y seriedad, han permitido contar con la confianza de muchos propietarios y clientes que nos hacen dÃ­a a dÃ­a la inmobiliaria mÃ¡s confiable de Acapulco. Â¡Permite que seamos parte de la realizaciÃ³n de tus sueÃ±os! Casas Acapulco DiamanteSomos una inmobiliaria que te ayudarÃ¡ a encontrar el mejor inmueble de acuerdo a tus sueÃ±os, necesidades y presupuesto. Permite que seamos parte en el proceso de la compra o renta que tienes en mente, dÃ¡ndote la seguridad de que serÃ¡ la mejor oportunidad para operar siempre con transparencia y confiabilidad. Con una atenciÃ³n personalizada, nos ocupamos de que encuentres el inmueble de acuerdo a tus necesidades, acompaÃ±Ã¡ndote y asesorÃ¡ndote desde el principio hasta el cierre de la operaciÃ³n. Nuestro compromiso y seriedad, han permitido contar con la confianza de muchos propietarios y clientes que nos hacen dÃ­a a dÃ­a la inmobiliaria mÃ¡s confiable de Acapulco. Â¡Permite que seamos parte de la realizaciÃ³n de tus sueÃ±os! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cad Torre Latina - Oficina piso 6. Vistas al campo de golf y a la bahÃ­a de Santa LucÃ­a con 5 cajones de estacionamientoLas Ã¡reas privativas son: Superficie de oficina 236. 81 mÂ² Superficie de Ã¡reas comunes 16. 50 mÂ²Superficie total 253. 31 mÂ²Precio de la renta mensual $54, 466 (Este importe considera todo el piso, existe la posibilidad de renta por mÃ³dulos) Costo por metro cuadrado $230Se incluye renta y cuotas de mantenimiento (mÃ¡s el iva correspondiente) Torre Latina, Edificio comercial de 12 niveles, con varias opciones de espacios para las diferentes necesidades, ubicada en el corazÃ³n financiero de Acapulco, con vistas a la bahÃ­a de Santa LucÃ­a, y al Campo de Golf de Acapulco, con una superficie total de construcciÃ³n de 2, 956 mÂ². Servicios: Vigilancia Elevador panorÃ¡mico Estacionamientos con acceso por medio de elevadorCasas Acapulco DiamanteSomos una inmobiliaria que te ayudarÃ¡ a encontrar el mejor inmueble de acuerdo a tus sueÃ±os, necesidades y presupuesto. Permite que seamos parte en el proceso de la compra o renta que tienes en mente, dÃ¡ndote la seguridad de que serÃ¡ la mejor oportunidad para operar siempre con transparencia y confiabilidad. Con una atenciÃ³n personalizada, nos ocupamos de que encuentres el inmueble de acuerdo a tus necesidades, acompaÃ±Ã¡ndote y asesorÃ¡ndote desde el principio hasta el cierre de la operaciÃ³n. Nuestro compromiso y seriedad, han permitido contar con la confianza de muchos propietarios y clientes que nos hacen dÃ­a a dÃ­a la inmobiliaria mÃ¡s confiable de Acapulco. Â¡Permite que seamos parte de la realizaciÃ³n de tus sueÃ±os! Casas Acapulco DiamanteSomos una inmobiliaria que te ayudarÃ¡ a encontrar el mejor inmueble de acuerdo a tus sueÃ±os, necesidades y presupuesto. Permite que seamos parte en el proceso de la compra o renta que tienes en mente, dÃ¡ndote la seguridad de que serÃ¡ la mejor oportunidad para operar siempre con transparencia y confiabilidad. Con una atenciÃ³n personalizada, nos ocupamos de que encuentres el inmueble de acuerdo a tus necesidades, acompaÃ±Ã¡ndote y asesorÃ¡ndote desde el principio hasta el cierre de la operaciÃ³n. Nuestro compromiso y seriedad, han permitido contar con la confianza de muchos propietarios y clientes que nos hacen dÃ­a a dÃ­a la inmobiliaria mÃ¡s confiable de Acapulco. Â¡Permite que seamos parte de la realizaciÃ³n de tus sueÃ±os! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cad Torre Latina - Oficina piso 9. Vistas al campo de golf y a la bahÃ­a de Santa LucÃ­a con 5 cajones de estacionamientoSuperficie de oficina 237. 12 mÂ² Superficie de Ã¡reas comunes 16. 50 mÂ²Superficie total 253. 62 mÂ²Precio de la renta mensual $54, 437 (Este importe considera todo el piso, existe la posibilidad de renta por mÃ³dulos) Costo por metro cuadrado $230Se incluye renta y cuotas de mantenimiento (mÃ¡s el iva correspondiente) Torre Latina, Edificio comercial de 12 niveles, con varias opciones de espacios para las diferentes necesidades, ubicada en el corazÃ³n financiero de Acapulco, con vistas a la bahÃ­a de Santa LucÃ­a, y al Campo de Golf de Acapulco, con una superficie total de construcciÃ³n de 2, 956 mÂ². Servicios: Vigilancia Elevador panorÃ¡mico Estacionamientos con acceso por medio de elevadorCasas Acapulco DiamanteSomos una inmobiliaria que te ayudarÃ¡ a encontrar el mejor inmueble de acuerdo a tus sueÃ±os, necesidades y presupuesto. Permite que seamos parte en el proceso de la compra o renta que tienes en mente, dÃ¡ndote la seguridad de que serÃ¡ la mejor oportunidad para operar siempre con transparencia y confiabilidad. Con una atenciÃ³n personalizada, nos ocupamos de que encuentres el inmueble de acuerdo a tus necesidades, acompaÃ±Ã¡ndote y asesorÃ¡ndote desde el principio hasta el cierre de la operaciÃ³n. Nuestro compromiso y seriedad, han permitido contar con la confianza de muchos propietarios y clientes que nos hacen dÃ­a a dÃ­a la inmobiliaria mÃ¡s confiable de Acapulco. Â¡Permite que seamos parte de la realizaciÃ³n de tus sueÃ±os! Casas Acapulco DiamanteSomos una inmobiliaria que te ayudarÃ¡ a encontrar el mejor inmueble de acuerdo a tus sueÃ±os, necesidades y presupuesto. Permite que seamos parte en el proceso de la compra o renta que tienes en mente, dÃ¡ndote la seguridad de que serÃ¡ la mejor oportunidad para operar siempre con transparencia y confiabilidad. Con una atenciÃ³n personalizada, nos ocupamos de que encuentres el inmueble de acuerdo a tus necesidades, acompaÃ±Ã¡ndote y asesorÃ¡ndote desde el principio hasta el cierre de la operaciÃ³n. Nuestro compromiso y seriedad, han permitido contar con la confianza de muchos propietarios y clientes que nos hacen dÃ­a a dÃ­a la inmobiliaria mÃ¡s confiable de Acapulco. Â¡Permite que seamos parte de la realizaciÃ³n de tus sueÃ±os! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cad Torre Latina - Oficina piso 7. Vistas al campo de golf y a la bahÃ­a de Santa LucÃ­a con 5 cajones de estacionamientoSuperficie de oficina 237. 12 mÂ² Superficie de Ã¡reas comunes 16. 50 mÂ²Superficie total 253. 62 mÂ²Precio de la renta mensual $54, 437 (Este importe considera todo el piso. Existe la posibilidad de renta por mÃ³dulos) Costo por metro cuadrado $230Se incluye renta y cuotas de mantenimiento (mÃ¡s el iva correspondiente) Torre Latina, Edificio comercial de 12 niveles, con varias opciones de espacios para las diferentes necesidades, ubicada en el corazÃ³n financiero de Acapulco, con vistas a la bahÃ­a de Santa LucÃ­a, y al Campo de Golf de Acapulco, con una superficie total de construcciÃ³n de 2, 956 mÂ². Servicios: Vigilancia Elevador panorÃ¡mico Estacionamientos con acceso por medio de elevadorCasas Acapulco DiamanteSomos una inmobiliaria que te ayudarÃ¡ a encontrar el mejor inmueble de acuerdo a tus sueÃ±os, necesidades y presupuesto. Permite que seamos parte en el proceso de la compra o renta que tienes en mente, dÃ¡ndote la seguridad de que serÃ¡ la mejor oportunidad para operar siempre con transparencia y confiabilidad. Con una atenciÃ³n personalizada, nos ocupamos de que encuentres el inmueble de acuerdo a tus necesidades, acompaÃ±Ã¡ndote y asesorÃ¡ndote desde el principio hasta el cierre de la operaciÃ³n. Nuestro compromiso y seriedad, han permitido contar con la confianza de muchos propietarios y clientes que nos hacen dÃ­a a dÃ­a la inmobiliaria mÃ¡s confiable de Acapulco. Â¡Permite que seamos parte de la realizaciÃ³n de tus sueÃ±os! Casas Acapulco DiamanteSomos una inmobiliaria que te ayudarÃ¡ a encontrar el mejor inmueble de acuerdo a tus sueÃ±os, necesidades y presupuesto. Permite que seamos parte en el proceso de la compra o renta que tienes en mente, dÃ¡ndote la seguridad de que serÃ¡ la mejor oportunidad para operar siempre con transparencia y confiabilidad. Con una atenciÃ³n personalizada, nos ocupamos de que encuentres el inmueble de acuerdo a tus necesidades, acompaÃ±Ã¡ndote y asesorÃ¡ndote desde el principio hasta el cierre de la operaciÃ³n. Nuestro compromiso y seriedad, han permitido contar con la confianza de muchos propietarios y clientes que nos hacen dÃ­a a dÃ­a la inmobiliaria mÃ¡s confiable de Acapulco. Â¡Permite que seamos parte de la realizaciÃ³n de tus sueÃ±os! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roma oficinas en renta. Oficinas desde 40, 80 y hasta 200 m2 nos adaptamos al espacio que necesites. Precio por metro cuadrado $230. UbicaciÃ³n ideal, a 2 calles del metro Chapultepec, palacio de hierro Durango. Cuenta con elevador y vigilancia las 24 horas del dÃ­a. Las oficinas exteriores tiene vista al castillo de Chapultepec. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En renta oficina sobre la avenida CuauhtÃ©moc, junto a colegio conamat, cerca de plazas CuauhtÃ©moc 166, Centro comercial Acapulco, Plaza Universidad y Galeritas Acapulco, cuenta con baÃ±o completo, terraza, y todos los servicios. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se renta oficina o departamento sobre la avenida CuauhtÃ©moc, junto a colegio conamat, cerca de plazas CuauhtÃ©moc 166, Centro comercial Acapulco, Plaza Universidad y Galeritas Acapulco, cuenta con baÃ±o completo, terraza, y todos los servicios. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oficina sobre Costera Miguel AlemÃ¡n, a un costado del Centro de Convenciones, excelente ubicaciÃ³n primer y segundo piso se renta junto o por separado 100 metros cada piso (4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renta de oficinas de diferentes medidas y precios, en Edificio muy bien ubicado en Costera Miguel AlemÃ¡n, junto a notarias, bancos, etc. Con elevador y seguridad. Precios desde: $8, 500. 00 con 36. 47 mtrs2. $19, 600. 00 con 84. 73 mtrs2. (4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excelentes oficinas en renta, en reconocida Plaza Comercial, con una ubicaciÃ³n priviligiada sobre la Costera Miguel AlemÃ¡n, a unos metros de la Playa y hoteles, gran movimiento vehicular y de personas. Oficina 50 mtrs2 $13, 000. 00 mensuales. Oficina 200 mtrs2 $50, 000. 00 mensuales. (4) </t>
+  </si>
+  <si>
+    <t>Oficina / consultorio en Costa Azul en Acapulco. 63 m2. planta baja. 2 cubiculos. 1. 5 baÃ±os. aire acondicionado. a 1 cuadra de Costera. Incluye agua y mantenimiento. Oficina con derecho a uso de la alberca del condominio. 10, 000 mensual. EasyBroker id: eb-ir2335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excelente ubicaciÃ³n, edificio corporativo, cuenta con elevadores, recepciÃ³n a la entrada, baÃ±os entre pisos, guardia en la entrada. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oficina de 152 m2, edificio para oficinas, cuenta con elevadores, recepciÃ³n a la entrada, baÃ±os entre pisos, guardia en la entrada. Excelente ubicaciÃ³n. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renta de oficinas de diferentes medidas y precios, en Edificio muy bien ubicado en Costera Miguel AlemÃ¡n, junto a notarias, bancos, etc. Con elevador y seguridad. Se renta un piso completo con 253. 61 mtrs2 (4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renta de oficinas de diferentes medidas y precios, en Edificio muy bien ubicado en Costera Miguel AlemÃ¡n, junto a notarias, bancos, etc. Con elevador y seguridad. Precios desde $7, 200. 00 con 36. 47 mtrs (4) </t>
+  </si>
+  <si>
+    <t>Piso 4 y 5 en renta. Edificio frente a walmart Icacos, en Av costera Miguel Aleman. Ideal para bufet de abogados, notarias o dependencias de gobierno. Cuenta con estacionamiento subterrÃ¡neo y elevador. CaracterÃ­sticas: Piso #4. 5 despachos. Zona de usos mÃºltiples. BaÃ±os. Bodega. Cocina. Dimenciones: 487. 88m2. Precio de Renta: $200 m2 = $97, 576. 00. Piso #3. 8 despachos pequeÃ±os. BaÃ±os. Zona de usos mÃºltiples. Dimenciones: 414. 08 m2. Precio de Renta: $200m2 = $82, 816. 00</t>
+  </si>
+  <si>
+    <t>Piso 4 y 5 en renta. Edificio frente a walmart Icacos, en Av costera Miguel Alemen. Ideal para bufet de abogados, notarias o dependencias de gobierno. Cuenta con estacionamiento subterrÃ¡neo y elevador. CaracterÃ­sticas: Piso #4. 5 despachos. Zona de usos mÃºltiples. BaÃ±os. Bodega. Cocina. Dimenciones: 487. 88m2. Precio de Renta: $200 m2 = $97, 576. 00. Piso #3. 8 despachos pequeÃ±os. BaÃ±os. Zona de usos mÃºltiples. Dimenciones: 414. 08 m2. Precio de Renta: $200m2 = $82, 816. 00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ofrezco en renta anual, Oficinas de 12 m2. Amuebladas. Aire acondicionado. Sala de espera de uso comun. BaÃ±os para Damas y Caballeros de uso comÃºn. Sala de juntas. Ubicacion: Fraccionamiento Costa Azul. A 100 metros de la costera Miguel AlemÃ¡n a la altura de del edificio Oceanic 2000. Incluido: Suministro agua potable. Luz aparte. Contrato anual. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oficina de 138 metros cuadrados, ubicado en Roma Norte, edificio corporativo, cuenta con elevadores, recepciÃ³n a la entrada, baÃ±os entre pisos, guardia en la entrada, excelente ubicaciÃ³n. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edificio corporativo, oficina disponible de 162 m2, cuenta con elevadores, baÃ±os entre pisos, seguridad 24 horas, recepciÃ³n en la entrada, ubicado en la colonia Roma Norte. </t>
+  </si>
+  <si>
+    <t>Zona_venta</t>
+  </si>
+  <si>
+    <t>Colonia_Venta</t>
   </si>
 </sst>
 </file>
@@ -507,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF7D7D5-BE4F-49E3-B08C-B471122AD6AF}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,972 +634,2019 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>28</v>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>28</v>
+      <c r="G7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>28</v>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="E9" t="s">
         <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>28</v>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>31</v>
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>31</v>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>31</v>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="4"/>
-      <c r="E34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>31</v>
+      <c r="E34" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>31</v>
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>31</v>
+      <c r="E37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="E39" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="F46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="F47" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E94" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="97" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="99" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="103" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="106" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E106" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="108" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="109" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="110" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E110" t="s">
+        <v>25</v>
+      </c>
+      <c r="F110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E111" t="s">
+        <v>26</v>
+      </c>
+      <c r="F111" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>27</v>
+      </c>
+      <c r="F112" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
+        <v>28</v>
+      </c>
+      <c r="F113" t="s">
+        <v>20</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E114" t="s">
+        <v>29</v>
+      </c>
+      <c r="F114" t="s">
+        <v>18</v>
+      </c>
+      <c r="G114" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E115" t="s">
+        <v>30</v>
+      </c>
+      <c r="F115" t="s">
+        <v>5</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E116" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>31</v>
+      <c r="F116" t="s">
+        <v>6</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E117" t="s">
+        <v>32</v>
+      </c>
+      <c r="F117" t="s">
+        <v>33</v>
+      </c>
+      <c r="G117" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E118" t="s">
+        <v>34</v>
+      </c>
+      <c r="F118" t="s">
+        <v>35</v>
+      </c>
+      <c r="G118" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E119" t="s">
+        <v>36</v>
+      </c>
+      <c r="F119" t="s">
+        <v>20</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>37</v>
+      </c>
+      <c r="F120" t="s">
+        <v>11</v>
+      </c>
+      <c r="G120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>38</v>
+      </c>
+      <c r="F121" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E122" t="s">
+        <v>39</v>
+      </c>
+      <c r="F122" t="s">
+        <v>20</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>40</v>
+      </c>
+      <c r="F123" t="s">
+        <v>18</v>
+      </c>
+      <c r="G123" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E124" t="s">
+        <v>41</v>
+      </c>
+      <c r="F124" t="s">
+        <v>5</v>
+      </c>
+      <c r="G124" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E125" t="s">
+        <v>42</v>
+      </c>
+      <c r="F125" t="s">
+        <v>6</v>
+      </c>
+      <c r="G125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
+        <v>43</v>
+      </c>
+      <c r="F126" t="s">
+        <v>35</v>
+      </c>
+      <c r="G126" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E127" t="s">
+        <v>44</v>
+      </c>
+      <c r="F127" t="s">
+        <v>33</v>
+      </c>
+      <c r="G127" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E128" t="s">
+        <v>45</v>
+      </c>
+      <c r="F128" t="s">
+        <v>20</v>
+      </c>
+      <c r="G128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>46</v>
+      </c>
+      <c r="F129" t="s">
+        <v>20</v>
+      </c>
+      <c r="G129" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E130" t="s">
+        <v>47</v>
+      </c>
+      <c r="F130" t="s">
+        <v>20</v>
+      </c>
+      <c r="G130" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E131" t="s">
+        <v>48</v>
+      </c>
+      <c r="F131" t="s">
+        <v>33</v>
+      </c>
+      <c r="G131" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E132" t="s">
+        <v>49</v>
+      </c>
+      <c r="F132" t="s">
+        <v>20</v>
+      </c>
+      <c r="G132" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>50</v>
+      </c>
+      <c r="F133" t="s">
+        <v>20</v>
+      </c>
+      <c r="G133" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E134" t="s">
+        <v>51</v>
+      </c>
+      <c r="F134" t="s">
+        <v>20</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E135" t="s">
+        <v>52</v>
+      </c>
+      <c r="F135" t="s">
+        <v>20</v>
+      </c>
+      <c r="G135" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>53</v>
+      </c>
+      <c r="F136" t="s">
+        <v>20</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>54</v>
+      </c>
+      <c r="F137" t="s">
+        <v>20</v>
+      </c>
+      <c r="G137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E138" t="s">
+        <v>55</v>
+      </c>
+      <c r="F138" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E139" t="s">
+        <v>56</v>
+      </c>
+      <c r="F139" t="s">
+        <v>20</v>
+      </c>
+      <c r="G139" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E140" t="s">
+        <v>57</v>
+      </c>
+      <c r="F140" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E141" t="s">
+        <v>58</v>
+      </c>
+      <c r="F141" t="s">
+        <v>20</v>
+      </c>
+      <c r="G141" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E142" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="143" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E143" t="s">
+        <v>60</v>
+      </c>
+      <c r="F143" t="s">
+        <v>5</v>
+      </c>
+      <c r="G143" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E144" t="s">
+        <v>61</v>
+      </c>
+      <c r="F144" t="s">
+        <v>6</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E145" t="s">
+        <v>62</v>
+      </c>
+      <c r="F145" t="s">
+        <v>33</v>
+      </c>
+      <c r="G145" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E146" t="s">
+        <v>63</v>
+      </c>
+      <c r="F146" t="s">
+        <v>35</v>
+      </c>
+      <c r="G146" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E147" t="s">
+        <v>64</v>
+      </c>
+      <c r="F147" t="s">
+        <v>20</v>
+      </c>
+      <c r="G147" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E148" t="s">
+        <v>65</v>
+      </c>
+      <c r="F148" t="s">
+        <v>11</v>
+      </c>
+      <c r="G148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E149" t="s">
+        <v>66</v>
+      </c>
+      <c r="F149" t="s">
+        <v>12</v>
+      </c>
+      <c r="G149" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F150" t="s">
+        <v>20</v>
+      </c>
+      <c r="G150" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F152" t="s">
+        <v>5</v>
+      </c>
+      <c r="G152" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F153" t="s">
+        <v>6</v>
+      </c>
+      <c r="G153" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F154" t="s">
+        <v>35</v>
+      </c>
+      <c r="G154" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F155" t="s">
+        <v>33</v>
+      </c>
+      <c r="G155" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F156" t="s">
+        <v>20</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F157" t="s">
+        <v>20</v>
+      </c>
+      <c r="G157" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F158" t="s">
+        <v>20</v>
+      </c>
+      <c r="G158" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F159" t="s">
+        <v>33</v>
+      </c>
+      <c r="G159" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F160" t="s">
+        <v>20</v>
+      </c>
+      <c r="G160" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F161" t="s">
+        <v>20</v>
+      </c>
+      <c r="G161" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F162" t="s">
+        <v>20</v>
+      </c>
+      <c r="G162" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F163" t="s">
+        <v>20</v>
+      </c>
+      <c r="G163" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F164" t="s">
+        <v>20</v>
+      </c>
+      <c r="G164" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F165" t="s">
+        <v>20</v>
+      </c>
+      <c r="G165" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E179" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E180" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E181" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E182" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E183" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E184" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E185" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E186" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E187" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E188" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E189" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E190" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E191" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E192" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E193" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E194" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E195" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E196" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E197" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E198" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E199" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E200" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E201" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E202" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="203" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E203" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="204" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E204" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="205" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E205" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="206" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E206" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="207" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E207" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="208" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E208" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E209" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E210" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E211" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="212" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E212" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="213" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E213" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="214" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E214" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="215" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E215" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="216" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E216" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
